--- a/biology/Zoologie/Graphium_gelon/Graphium_gelon.xlsx
+++ b/biology/Zoologie/Graphium_gelon/Graphium_gelon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Graphium gelon est une espèce de lépidoptères de la famille des Papilionidae, de la sous-famille des Papilioninae et du genre Graphium.
 </t>
@@ -511,11 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il a été nommé Graphium gelon par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1859[1].
-Synonyme : Papilio gelon Boisduval, 1859[1].
-Noms vernaculaires</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été nommé Graphium gelon par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1859.
+Synonyme : Papilio gelon Boisduval, 1859.
+</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Graphium gelon est un grand papillon noir au dessus orné d'une bande médiane bleu métallique aux antérieures et aux postérieures. Son corps est noir. Le revers des antérieures est taché de bleu, celui des postérieures est beige et marron foncé dans sa partie distale.
 </t>
@@ -571,12 +587,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en Nouvelle-Calédonie, aux iles Loyauté et à Lifou.
+</t>
         </is>
       </c>
     </row>
@@ -601,12 +620,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside en Nouvelle-Calédonie, aux iles Loyauté et à Lifou[1].
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est inféodé à la forêt humide.
 </t>
         </is>
       </c>
@@ -637,9 +658,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est inféodé à la forêt humide[2].
-Protection
-Pas de statut de protection particulier[3].
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
